--- a/PythonResources/Data/Consumption/Sympheny/futu_1500_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/futu_1500_hea.xlsx
@@ -479,7 +479,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>82.6026583887775</v>
+        <v>82.60265838877748</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -615,7 +615,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>1442.97335808416</v>
+        <v>1442.973358084159</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -663,7 +663,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>711.1573902844607</v>
+        <v>711.1573902844606</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -671,7 +671,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>720.0139970728065</v>
+        <v>720.0139970728064</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -743,7 +743,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>58.14119107586965</v>
+        <v>58.14119107586964</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -799,7 +799,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>838.5260636866814</v>
+        <v>838.5260636866813</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -823,7 +823,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>486.8818472384796</v>
+        <v>486.8818472384795</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -935,7 +935,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>9.517804358669716</v>
+        <v>9.517804358669714</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1031,7 +1031,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>227.3396007551855</v>
+        <v>227.3396007551854</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1063,7 +1063,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>447.8184084953089</v>
+        <v>447.8184084953088</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1071,7 +1071,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>556.3601983739247</v>
+        <v>556.3601983739246</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1223,7 +1223,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>490.2169956584457</v>
+        <v>490.2169956584456</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1247,7 +1247,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>481.5245086517502</v>
+        <v>481.5245086517501</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1319,7 +1319,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>41.67323634245</v>
+        <v>41.67323634244999</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1375,7 +1375,7 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>117.9036511376139</v>
+        <v>117.9036511376138</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1415,7 +1415,7 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>59.39729354757218</v>
+        <v>59.39729354757217</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1591,7 +1591,7 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>34.71807445293895</v>
+        <v>34.71807445293894</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1767,7 +1767,7 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>990.316346740552</v>
+        <v>990.3163467405518</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1791,7 +1791,7 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>650.3685954453244</v>
+        <v>650.3685954453243</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1799,7 +1799,7 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>549.6752479820594</v>
+        <v>549.6752479820593</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1839,7 +1839,7 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>713.8682973920781</v>
+        <v>713.868297392078</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1887,7 +1887,7 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <v>53.19620344053677</v>
+        <v>53.19620344053676</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -2023,7 +2023,7 @@
         <v>210</v>
       </c>
       <c r="B210">
-        <v>620.0357429438752</v>
+        <v>620.0357429438751</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2031,7 +2031,7 @@
         <v>211</v>
       </c>
       <c r="B211">
-        <v>728.3782445162013</v>
+        <v>728.3782445162012</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2223,7 +2223,7 @@
         <v>235</v>
       </c>
       <c r="B235">
-        <v>690.0679983423903</v>
+        <v>690.0679983423902</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2335,7 +2335,7 @@
         <v>249</v>
       </c>
       <c r="B249">
-        <v>886.4812777428373</v>
+        <v>886.4812777428372</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2343,7 +2343,7 @@
         <v>250</v>
       </c>
       <c r="B250">
-        <v>684.94511658659</v>
+        <v>684.9451165865898</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2359,7 +2359,7 @@
         <v>252</v>
       </c>
       <c r="B252">
-        <v>448.8295035786905</v>
+        <v>448.8295035786904</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2527,7 +2527,7 @@
         <v>273</v>
       </c>
       <c r="B273">
-        <v>681.3139664175759</v>
+        <v>681.3139664175758</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -2535,7 +2535,7 @@
         <v>274</v>
       </c>
       <c r="B274">
-        <v>491.6295980647934</v>
+        <v>491.6295980647933</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2695,7 +2695,7 @@
         <v>294</v>
       </c>
       <c r="B294">
-        <v>6.870347130922453</v>
+        <v>6.870347130922452</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -2703,7 +2703,7 @@
         <v>295</v>
       </c>
       <c r="B295">
-        <v>8.9661274354936</v>
+        <v>8.966127435493599</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2991,7 +2991,7 @@
         <v>331</v>
       </c>
       <c r="B331">
-        <v>3.406481910776281</v>
+        <v>3.40648191077628</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3007,7 +3007,7 @@
         <v>333</v>
       </c>
       <c r="B333">
-        <v>8.683958639470458</v>
+        <v>8.683958639470456</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3079,7 +3079,7 @@
         <v>342</v>
       </c>
       <c r="B342">
-        <v>50.11104461654879</v>
+        <v>50.11104461654878</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3247,7 +3247,7 @@
         <v>363</v>
       </c>
       <c r="B363">
-        <v>48.46545073446534</v>
+        <v>48.46545073446533</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3335,7 +3335,7 @@
         <v>374</v>
       </c>
       <c r="B374">
-        <v>210.6779260652107</v>
+        <v>210.6779260652106</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3423,7 +3423,7 @@
         <v>385</v>
       </c>
       <c r="B385">
-        <v>9.097364646606151</v>
+        <v>9.097364646606149</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3439,7 +3439,7 @@
         <v>387</v>
       </c>
       <c r="B387">
-        <v>27.24901249713524</v>
+        <v>27.24901249713523</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -3487,7 +3487,7 @@
         <v>393</v>
       </c>
       <c r="B393">
-        <v>704.5339848107143</v>
+        <v>704.5339848107142</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3551,7 +3551,7 @@
         <v>401</v>
       </c>
       <c r="B401">
-        <v>362.0540997414528</v>
+        <v>362.0540997414527</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -3567,7 +3567,7 @@
         <v>403</v>
       </c>
       <c r="B403">
-        <v>632.1366461302022</v>
+        <v>632.1366461302021</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3591,7 +3591,7 @@
         <v>406</v>
       </c>
       <c r="B406">
-        <v>3.257836279967247</v>
+        <v>3.257836279967246</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3679,7 +3679,7 @@
         <v>417</v>
       </c>
       <c r="B417">
-        <v>789.5099324705714</v>
+        <v>789.5099324705712</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3895,7 +3895,7 @@
         <v>444</v>
       </c>
       <c r="B444">
-        <v>688.9513976850906</v>
+        <v>688.9513976850905</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -3911,7 +3911,7 @@
         <v>446</v>
       </c>
       <c r="B446">
-        <v>544.4820291769804</v>
+        <v>544.4820291769803</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -4039,7 +4039,7 @@
         <v>462</v>
       </c>
       <c r="B462">
-        <v>162.4108844239191</v>
+        <v>162.410884423919</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -4119,7 +4119,7 @@
         <v>472</v>
       </c>
       <c r="B472">
-        <v>15.74175400672071</v>
+        <v>15.7417540067207</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4303,7 +4303,7 @@
         <v>495</v>
       </c>
       <c r="B495">
-        <v>3.657555869597456</v>
+        <v>3.657555869597455</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4351,7 +4351,7 @@
         <v>501</v>
       </c>
       <c r="B501">
-        <v>83.51205782174365</v>
+        <v>83.51205782174364</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -4383,7 +4383,7 @@
         <v>505</v>
       </c>
       <c r="B505">
-        <v>124.5748271906621</v>
+        <v>124.574827190662</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -4591,7 +4591,7 @@
         <v>531</v>
       </c>
       <c r="B531">
-        <v>60.25862933019787</v>
+        <v>60.25862933019786</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -4615,7 +4615,7 @@
         <v>534</v>
       </c>
       <c r="B534">
-        <v>1377.217009139714</v>
+        <v>1377.217009139713</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -4647,7 +4647,7 @@
         <v>538</v>
       </c>
       <c r="B538">
-        <v>615.5839938666094</v>
+        <v>615.5839938666093</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -4783,7 +4783,7 @@
         <v>555</v>
       </c>
       <c r="B555">
-        <v>67.46172931841642</v>
+        <v>67.4617293184164</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -4823,7 +4823,7 @@
         <v>560</v>
       </c>
       <c r="B560">
-        <v>994.1702308989486</v>
+        <v>994.1702308989484</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -4831,7 +4831,7 @@
         <v>561</v>
       </c>
       <c r="B561">
-        <v>823.5501336110866</v>
+        <v>823.5501336110865</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -4991,7 +4991,7 @@
         <v>581</v>
       </c>
       <c r="B581">
-        <v>30.73553210856993</v>
+        <v>30.73553210856992</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -5015,7 +5015,7 @@
         <v>584</v>
       </c>
       <c r="B584">
-        <v>790.2543329087712</v>
+        <v>790.2543329087711</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -5023,7 +5023,7 @@
         <v>585</v>
       </c>
       <c r="B585">
-        <v>675.1536131849144</v>
+        <v>675.1536131849143</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -5407,7 +5407,7 @@
         <v>633</v>
       </c>
       <c r="B633">
-        <v>81.5912702343572</v>
+        <v>81.59127023435718</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -5431,7 +5431,7 @@
         <v>636</v>
       </c>
       <c r="B636">
-        <v>5.741349568687353</v>
+        <v>5.741349568687352</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -5487,7 +5487,7 @@
         <v>643</v>
       </c>
       <c r="B643">
-        <v>5.096329519697599</v>
+        <v>5.096329519697598</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -5535,7 +5535,7 @@
         <v>649</v>
       </c>
       <c r="B649">
-        <v>59.11946220292122</v>
+        <v>59.11946220292121</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -5751,7 +5751,7 @@
         <v>676</v>
       </c>
       <c r="B676">
-        <v>144.4708338633035</v>
+        <v>144.4708338633034</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -5791,7 +5791,7 @@
         <v>681</v>
       </c>
       <c r="B681">
-        <v>834.7132094736972</v>
+        <v>834.7132094736971</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -5847,7 +5847,7 @@
         <v>688</v>
       </c>
       <c r="B688">
-        <v>238.4680942352341</v>
+        <v>238.468094235234</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -5911,7 +5911,7 @@
         <v>696</v>
       </c>
       <c r="B696">
-        <v>2.913386957518181</v>
+        <v>2.91338695751818</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -5983,7 +5983,7 @@
         <v>705</v>
       </c>
       <c r="B705">
-        <v>686.0031030361574</v>
+        <v>686.0031030361573</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -6039,7 +6039,7 @@
         <v>712</v>
       </c>
       <c r="B712">
-        <v>102.0646268531615</v>
+        <v>102.0646268531614</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -6063,7 +6063,7 @@
         <v>715</v>
       </c>
       <c r="B715">
-        <v>349.9004437681668</v>
+        <v>349.9004437681667</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -6191,7 +6191,7 @@
         <v>731</v>
       </c>
       <c r="B731">
-        <v>269.5242460600996</v>
+        <v>269.5242460600995</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -6223,7 +6223,7 @@
         <v>735</v>
       </c>
       <c r="B735">
-        <v>60.32193267454872</v>
+        <v>60.32193267454871</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -6351,7 +6351,7 @@
         <v>751</v>
       </c>
       <c r="B751">
-        <v>713.2118182654767</v>
+        <v>713.2118182654766</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -6439,7 +6439,7 @@
         <v>762</v>
       </c>
       <c r="B762">
-        <v>267.8672224075083</v>
+        <v>267.8672224075082</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -6607,7 +6607,7 @@
         <v>783</v>
       </c>
       <c r="B783">
-        <v>362.3149329658614</v>
+        <v>362.3149329658613</v>
       </c>
     </row>
     <row r="784" spans="1:2">
@@ -6615,7 +6615,7 @@
         <v>784</v>
       </c>
       <c r="B784">
-        <v>365.2983961394339</v>
+        <v>365.2983961394338</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -6671,7 +6671,7 @@
         <v>791</v>
       </c>
       <c r="B791">
-        <v>2.330286957576796</v>
+        <v>2.330286957576795</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -6679,7 +6679,7 @@
         <v>792</v>
       </c>
       <c r="B792">
-        <v>7.581571927545807</v>
+        <v>7.581571927545806</v>
       </c>
     </row>
     <row r="793" spans="1:2">
@@ -6855,7 +6855,7 @@
         <v>814</v>
       </c>
       <c r="B814">
-        <v>71.4794401874248</v>
+        <v>71.47944018742479</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -6863,7 +6863,7 @@
         <v>815</v>
       </c>
       <c r="B815">
-        <v>87.32901502926902</v>
+        <v>87.329015029269</v>
       </c>
     </row>
     <row r="816" spans="1:2">
@@ -6919,7 +6919,7 @@
         <v>822</v>
       </c>
       <c r="B822">
-        <v>211.6840389409351</v>
+        <v>211.684038940935</v>
       </c>
     </row>
     <row r="823" spans="1:2">
@@ -7159,7 +7159,7 @@
         <v>852</v>
       </c>
       <c r="B852">
-        <v>339.0128546818978</v>
+        <v>339.0128546818977</v>
       </c>
     </row>
     <row r="853" spans="1:2">
@@ -7207,7 +7207,7 @@
         <v>858</v>
       </c>
       <c r="B858">
-        <v>267.9492822983335</v>
+        <v>267.9492822983334</v>
       </c>
     </row>
     <row r="859" spans="1:2">
@@ -7375,7 +7375,7 @@
         <v>879</v>
       </c>
       <c r="B879">
-        <v>57.1195454350962</v>
+        <v>57.11954543509619</v>
       </c>
     </row>
     <row r="880" spans="1:2">
@@ -7455,7 +7455,7 @@
         <v>889</v>
       </c>
       <c r="B889">
-        <v>0.3018924769250518</v>
+        <v>0.3018924769250517</v>
       </c>
     </row>
     <row r="890" spans="1:2">
@@ -7503,7 +7503,7 @@
         <v>895</v>
       </c>
       <c r="B895">
-        <v>767.4504753905319</v>
+        <v>767.4504753905318</v>
       </c>
     </row>
     <row r="896" spans="1:2">
@@ -7543,7 +7543,7 @@
         <v>900</v>
       </c>
       <c r="B900">
-        <v>449.4185763663998</v>
+        <v>449.4185763663997</v>
       </c>
     </row>
     <row r="901" spans="1:2">
@@ -7551,7 +7551,7 @@
         <v>901</v>
       </c>
       <c r="B901">
-        <v>388.368948302855</v>
+        <v>388.3689483028549</v>
       </c>
     </row>
     <row r="902" spans="1:2">
@@ -7671,7 +7671,7 @@
         <v>916</v>
       </c>
       <c r="B916">
-        <v>40.88106532494838</v>
+        <v>40.88106532494837</v>
       </c>
     </row>
     <row r="917" spans="1:2">
@@ -7687,7 +7687,7 @@
         <v>918</v>
       </c>
       <c r="B918">
-        <v>1202.086548566854</v>
+        <v>1202.086548566853</v>
       </c>
     </row>
     <row r="919" spans="1:2">
@@ -7695,7 +7695,7 @@
         <v>919</v>
       </c>
       <c r="B919">
-        <v>888.3569323902699</v>
+        <v>888.3569323902698</v>
       </c>
     </row>
     <row r="920" spans="1:2">
@@ -7775,7 +7775,7 @@
         <v>929</v>
       </c>
       <c r="B929">
-        <v>326.5250977245379</v>
+        <v>326.5250977245378</v>
       </c>
     </row>
     <row r="930" spans="1:2">
@@ -8151,7 +8151,7 @@
         <v>976</v>
       </c>
       <c r="B976">
-        <v>34.68261285726093</v>
+        <v>34.68261285726092</v>
       </c>
     </row>
     <row r="977" spans="1:2">
@@ -8175,7 +8175,7 @@
         <v>979</v>
       </c>
       <c r="B979">
-        <v>76.35350463140163</v>
+        <v>76.35350463140162</v>
       </c>
     </row>
     <row r="980" spans="1:2">
@@ -8263,7 +8263,7 @@
         <v>990</v>
       </c>
       <c r="B990">
-        <v>282.9457273466345</v>
+        <v>282.9457273466344</v>
       </c>
     </row>
     <row r="991" spans="1:2">
@@ -8615,7 +8615,7 @@
         <v>1034</v>
       </c>
       <c r="B1034">
-        <v>28.06190363707021</v>
+        <v>28.0619036370702</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
@@ -8679,7 +8679,7 @@
         <v>1042</v>
       </c>
       <c r="B1042">
-        <v>411.3369256027446</v>
+        <v>411.3369256027445</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
@@ -8687,7 +8687,7 @@
         <v>1043</v>
       </c>
       <c r="B1043">
-        <v>405.9473492017625</v>
+        <v>405.9473492017624</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
@@ -8863,7 +8863,7 @@
         <v>1065</v>
       </c>
       <c r="B1065">
-        <v>492.1512645136106</v>
+        <v>492.1512645136105</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
@@ -9135,7 +9135,7 @@
         <v>1099</v>
       </c>
       <c r="B1099">
-        <v>325.8920642810294</v>
+        <v>325.8920642810293</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
@@ -9247,7 +9247,7 @@
         <v>1113</v>
       </c>
       <c r="B1113">
-        <v>583.4341009254598</v>
+        <v>583.4341009254597</v>
       </c>
     </row>
     <row r="1114" spans="1:2">
@@ -9367,7 +9367,7 @@
         <v>1128</v>
       </c>
       <c r="B1128">
-        <v>0.7323522878004491</v>
+        <v>0.732352287800449</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
@@ -9383,7 +9383,7 @@
         <v>1130</v>
       </c>
       <c r="B1130">
-        <v>5.749526250666005</v>
+        <v>5.749526250666004</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
@@ -9591,7 +9591,7 @@
         <v>1156</v>
       </c>
       <c r="B1156">
-        <v>19.56674136070539</v>
+        <v>19.56674136070538</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
@@ -9895,7 +9895,7 @@
         <v>1194</v>
       </c>
       <c r="B1194">
-        <v>2.00088683296299</v>
+        <v>2.000886832962989</v>
       </c>
     </row>
     <row r="1195" spans="1:2">
@@ -10031,7 +10031,7 @@
         <v>1211</v>
       </c>
       <c r="B1211">
-        <v>567.3151937990858</v>
+        <v>567.3151937990857</v>
       </c>
     </row>
     <row r="1212" spans="1:2">
@@ -10039,7 +10039,7 @@
         <v>1212</v>
       </c>
       <c r="B1212">
-        <v>482.0901357563666</v>
+        <v>482.0901357563665</v>
       </c>
     </row>
     <row r="1213" spans="1:2">
@@ -10223,7 +10223,7 @@
         <v>1235</v>
       </c>
       <c r="B1235">
-        <v>426.5854117442944</v>
+        <v>426.5854117442943</v>
       </c>
     </row>
     <row r="1236" spans="1:2">
@@ -10263,7 +10263,7 @@
         <v>1240</v>
       </c>
       <c r="B1240">
-        <v>295.7585000858699</v>
+        <v>295.7585000858698</v>
       </c>
     </row>
     <row r="1241" spans="1:2">
@@ -10287,7 +10287,7 @@
         <v>1243</v>
       </c>
       <c r="B1243">
-        <v>543.0078818525138</v>
+        <v>543.0078818525137</v>
       </c>
     </row>
     <row r="1244" spans="1:2">
@@ -10447,7 +10447,7 @@
         <v>1263</v>
       </c>
       <c r="B1263">
-        <v>293.1091378963713</v>
+        <v>293.1091378963712</v>
       </c>
     </row>
     <row r="1264" spans="1:2">
@@ -10655,7 +10655,7 @@
         <v>1289</v>
       </c>
       <c r="B1289">
-        <v>329.382540351486</v>
+        <v>329.3825403514859</v>
       </c>
     </row>
     <row r="1290" spans="1:2">
@@ -10727,7 +10727,7 @@
         <v>1298</v>
       </c>
       <c r="B1298">
-        <v>5.695864943487112</v>
+        <v>5.695864943487111</v>
       </c>
     </row>
     <row r="1299" spans="1:2">
@@ -10783,7 +10783,7 @@
         <v>1305</v>
       </c>
       <c r="B1305">
-        <v>2.920810446927473</v>
+        <v>2.920810446927472</v>
       </c>
     </row>
     <row r="1306" spans="1:2">
@@ -11071,7 +11071,7 @@
         <v>1341</v>
       </c>
       <c r="B1341">
-        <v>0.2608379135452159</v>
+        <v>0.2608379135452158</v>
       </c>
     </row>
     <row r="1342" spans="1:2">
@@ -11127,7 +11127,7 @@
         <v>1348</v>
       </c>
       <c r="B1348">
-        <v>12.28052642592249</v>
+        <v>12.28052642592248</v>
       </c>
     </row>
     <row r="1349" spans="1:2">
@@ -11167,7 +11167,7 @@
         <v>1353</v>
       </c>
       <c r="B1353">
-        <v>467.1523049157978</v>
+        <v>467.1523049157977</v>
       </c>
     </row>
     <row r="1354" spans="1:2">
@@ -11415,7 +11415,7 @@
         <v>1384</v>
       </c>
       <c r="B1384">
-        <v>87.3594944172898</v>
+        <v>87.35949441728978</v>
       </c>
     </row>
     <row r="1385" spans="1:2">
@@ -11535,7 +11535,7 @@
         <v>1399</v>
       </c>
       <c r="B1399">
-        <v>637.5086382688646</v>
+        <v>637.5086382688645</v>
       </c>
     </row>
     <row r="1400" spans="1:2">
@@ -11575,7 +11575,7 @@
         <v>1404</v>
       </c>
       <c r="B1404">
-        <v>263.5842822485114</v>
+        <v>263.5842822485113</v>
       </c>
     </row>
     <row r="1405" spans="1:2">
@@ -11607,7 +11607,7 @@
         <v>1408</v>
       </c>
       <c r="B1408">
-        <v>95.33864651588358</v>
+        <v>95.33864651588355</v>
       </c>
     </row>
     <row r="1409" spans="1:2">
@@ -11743,7 +11743,7 @@
         <v>1425</v>
       </c>
       <c r="B1425">
-        <v>879.7846045094255</v>
+        <v>879.7846045094254</v>
       </c>
     </row>
     <row r="1426" spans="1:2">
@@ -12135,7 +12135,7 @@
         <v>1474</v>
       </c>
       <c r="B1474">
-        <v>7.967546485462798</v>
+        <v>7.967546485462797</v>
       </c>
     </row>
     <row r="1475" spans="1:2">
@@ -12143,7 +12143,7 @@
         <v>1475</v>
       </c>
       <c r="B1475">
-        <v>1.363457323874564</v>
+        <v>1.363457323874563</v>
       </c>
     </row>
     <row r="1476" spans="1:2">
@@ -12207,7 +12207,7 @@
         <v>1483</v>
       </c>
       <c r="B1483">
-        <v>7.357460504281476</v>
+        <v>7.357460504281475</v>
       </c>
     </row>
     <row r="1484" spans="1:2">
@@ -12679,7 +12679,7 @@
         <v>1542</v>
       </c>
       <c r="B1542">
-        <v>959.5204419980178</v>
+        <v>959.5204419980176</v>
       </c>
     </row>
     <row r="1543" spans="1:2">
@@ -12743,7 +12743,7 @@
         <v>1550</v>
       </c>
       <c r="B1550">
-        <v>96.83623952344306</v>
+        <v>96.83623952344304</v>
       </c>
     </row>
     <row r="1551" spans="1:2">
@@ -12759,7 +12759,7 @@
         <v>1552</v>
       </c>
       <c r="B1552">
-        <v>80.64347849532641</v>
+        <v>80.64347849532639</v>
       </c>
     </row>
     <row r="1553" spans="1:2">
@@ -12935,7 +12935,7 @@
         <v>1574</v>
       </c>
       <c r="B1574">
-        <v>77.10523184556799</v>
+        <v>77.10523184556797</v>
       </c>
     </row>
     <row r="1575" spans="1:2">
@@ -13071,7 +13071,7 @@
         <v>1591</v>
       </c>
       <c r="B1591">
-        <v>683.1749675130754</v>
+        <v>683.1749675130753</v>
       </c>
     </row>
     <row r="1592" spans="1:2">
@@ -13295,7 +13295,7 @@
         <v>1619</v>
       </c>
       <c r="B1619">
-        <v>224.5557189589414</v>
+        <v>224.5557189589413</v>
       </c>
     </row>
     <row r="1620" spans="1:2">
@@ -13447,7 +13447,7 @@
         <v>1638</v>
       </c>
       <c r="B1638">
-        <v>4.423878021489141</v>
+        <v>4.42387802148914</v>
       </c>
     </row>
     <row r="1639" spans="1:2">
@@ -13623,7 +13623,7 @@
         <v>1660</v>
       </c>
       <c r="B1660">
-        <v>2.457230677972957</v>
+        <v>2.457230677972956</v>
       </c>
     </row>
     <row r="1661" spans="1:2">
@@ -13879,7 +13879,7 @@
         <v>1692</v>
       </c>
       <c r="B1692">
-        <v>97.27525993935777</v>
+        <v>97.27525993935774</v>
       </c>
     </row>
     <row r="1693" spans="1:2">
@@ -14071,7 +14071,7 @@
         <v>1716</v>
       </c>
       <c r="B1716">
-        <v>226.9547984814232</v>
+        <v>226.9547984814231</v>
       </c>
     </row>
     <row r="1717" spans="1:2">
@@ -14079,7 +14079,7 @@
         <v>1717</v>
       </c>
       <c r="B1717">
-        <v>40.95257465838175</v>
+        <v>40.95257465838174</v>
       </c>
     </row>
     <row r="1718" spans="1:2">
@@ -14207,7 +14207,7 @@
         <v>1733</v>
       </c>
       <c r="B1733">
-        <v>559.4403749902555</v>
+        <v>559.4403749902553</v>
       </c>
     </row>
     <row r="1734" spans="1:2">
@@ -14223,7 +14223,7 @@
         <v>1735</v>
       </c>
       <c r="B1735">
-        <v>419.4110327178647</v>
+        <v>419.4110327178646</v>
       </c>
     </row>
     <row r="1736" spans="1:2">
@@ -14439,7 +14439,7 @@
         <v>1762</v>
       </c>
       <c r="B1762">
-        <v>149.4961229632296</v>
+        <v>149.4961229632295</v>
       </c>
     </row>
     <row r="1763" spans="1:2">
@@ -14479,7 +14479,7 @@
         <v>1767</v>
       </c>
       <c r="B1767">
-        <v>10.49683747042181</v>
+        <v>10.4968374704218</v>
       </c>
     </row>
     <row r="1768" spans="1:2">
@@ -15175,7 +15175,7 @@
         <v>1854</v>
       </c>
       <c r="B1854">
-        <v>591.9185074947058</v>
+        <v>591.9185074947056</v>
       </c>
     </row>
     <row r="1855" spans="1:2">
@@ -15247,7 +15247,7 @@
         <v>1863</v>
       </c>
       <c r="B1863">
-        <v>36.10928267346436</v>
+        <v>36.10928267346435</v>
       </c>
     </row>
     <row r="1864" spans="1:2">
@@ -15359,7 +15359,7 @@
         <v>1877</v>
       </c>
       <c r="B1877">
-        <v>516.1274061864953</v>
+        <v>516.1274061864951</v>
       </c>
     </row>
     <row r="1878" spans="1:2">
@@ -15375,7 +15375,7 @@
         <v>1879</v>
       </c>
       <c r="B1879">
-        <v>404.2065072321141</v>
+        <v>404.206507232114</v>
       </c>
     </row>
     <row r="1880" spans="1:2">
@@ -15567,7 +15567,7 @@
         <v>1903</v>
       </c>
       <c r="B1903">
-        <v>494.7859731511761</v>
+        <v>494.785973151176</v>
       </c>
     </row>
     <row r="1904" spans="1:2">
@@ -15639,7 +15639,7 @@
         <v>1912</v>
       </c>
       <c r="B1912">
-        <v>55.50472401207219</v>
+        <v>55.50472401207218</v>
       </c>
     </row>
     <row r="1913" spans="1:2">
@@ -15743,7 +15743,7 @@
         <v>1925</v>
       </c>
       <c r="B1925">
-        <v>742.2522274864294</v>
+        <v>742.2522274864293</v>
       </c>
     </row>
     <row r="1926" spans="1:2">
@@ -15751,7 +15751,7 @@
         <v>1926</v>
       </c>
       <c r="B1926">
-        <v>582.6164327275947</v>
+        <v>582.6164327275945</v>
       </c>
     </row>
     <row r="1927" spans="1:2">
@@ -15967,7 +15967,7 @@
         <v>1953</v>
       </c>
       <c r="B1953">
-        <v>397.1288416484426</v>
+        <v>397.1288416484425</v>
       </c>
     </row>
     <row r="1954" spans="1:2">
@@ -16135,7 +16135,7 @@
         <v>1974</v>
       </c>
       <c r="B1974">
-        <v>2.402739979754653</v>
+        <v>2.402739979754652</v>
       </c>
     </row>
     <row r="1975" spans="1:2">
@@ -16151,7 +16151,7 @@
         <v>1976</v>
       </c>
       <c r="B1976">
-        <v>0.9548606124833025</v>
+        <v>0.9548606124833022</v>
       </c>
     </row>
     <row r="1977" spans="1:2">
@@ -16519,7 +16519,7 @@
         <v>2022</v>
       </c>
       <c r="B2022">
-        <v>530.4615106874217</v>
+        <v>530.4615106874215</v>
       </c>
     </row>
     <row r="2023" spans="1:2">
@@ -16567,7 +16567,7 @@
         <v>2028</v>
       </c>
       <c r="B2028">
-        <v>256.8471652117644</v>
+        <v>256.8471652117643</v>
       </c>
     </row>
     <row r="2029" spans="1:2">
@@ -16727,7 +16727,7 @@
         <v>2048</v>
       </c>
       <c r="B2048">
-        <v>291.2123821341551</v>
+        <v>291.212382134155</v>
       </c>
     </row>
     <row r="2049" spans="1:2">
@@ -16775,7 +16775,7 @@
         <v>2054</v>
       </c>
       <c r="B2054">
-        <v>86.63824659114422</v>
+        <v>86.63824659114421</v>
       </c>
     </row>
     <row r="2055" spans="1:2">
@@ -16783,7 +16783,7 @@
         <v>2055</v>
       </c>
       <c r="B2055">
-        <v>86.31762687484871</v>
+        <v>86.3176268748487</v>
       </c>
     </row>
     <row r="2056" spans="1:2">
@@ -16935,7 +16935,7 @@
         <v>2074</v>
       </c>
       <c r="B2074">
-        <v>230.5516593389139</v>
+        <v>230.5516593389138</v>
       </c>
     </row>
     <row r="2075" spans="1:2">
@@ -16991,7 +16991,7 @@
         <v>2081</v>
       </c>
       <c r="B2081">
-        <v>79.24728806714376</v>
+        <v>79.24728806714374</v>
       </c>
     </row>
     <row r="2082" spans="1:2">
@@ -17087,7 +17087,7 @@
         <v>2093</v>
       </c>
       <c r="B2093">
-        <v>712.6754982647265</v>
+        <v>712.6754982647263</v>
       </c>
     </row>
     <row r="2094" spans="1:2">
@@ -17119,7 +17119,7 @@
         <v>2097</v>
       </c>
       <c r="B2097">
-        <v>359.8062448749203</v>
+        <v>359.8062448749202</v>
       </c>
     </row>
     <row r="2098" spans="1:2">
@@ -17279,7 +17279,7 @@
         <v>2117</v>
       </c>
       <c r="B2117">
-        <v>804.2748513983299</v>
+        <v>804.2748513983298</v>
       </c>
     </row>
     <row r="2118" spans="1:2">
@@ -17295,7 +17295,7 @@
         <v>2119</v>
       </c>
       <c r="B2119">
-        <v>554.8860510494582</v>
+        <v>554.886051049458</v>
       </c>
     </row>
     <row r="2120" spans="1:2">
@@ -17327,7 +17327,7 @@
         <v>2123</v>
       </c>
       <c r="B2123">
-        <v>199.2446387049543</v>
+        <v>199.2446387049542</v>
       </c>
     </row>
     <row r="2124" spans="1:2">
@@ -17343,7 +17343,7 @@
         <v>2125</v>
       </c>
       <c r="B2125">
-        <v>39.40105657970859</v>
+        <v>39.40105657970858</v>
       </c>
     </row>
     <row r="2126" spans="1:2">
@@ -17455,7 +17455,7 @@
         <v>2139</v>
       </c>
       <c r="B2139">
-        <v>0.1729297901435521</v>
+        <v>0.172929790143552</v>
       </c>
     </row>
     <row r="2140" spans="1:2">
@@ -17471,7 +17471,7 @@
         <v>2141</v>
       </c>
       <c r="B2141">
-        <v>1.496614150290346</v>
+        <v>1.496614150290345</v>
       </c>
     </row>
     <row r="2142" spans="1:2">
@@ -17655,7 +17655,7 @@
         <v>2164</v>
       </c>
       <c r="B2164">
-        <v>2.005359097012962</v>
+        <v>2.005359097012961</v>
       </c>
     </row>
     <row r="2165" spans="1:2">
@@ -17871,7 +17871,7 @@
         <v>2191</v>
       </c>
       <c r="B2191">
-        <v>366.0134894737676</v>
+        <v>366.0134894737675</v>
       </c>
     </row>
     <row r="2192" spans="1:2">
@@ -18055,7 +18055,7 @@
         <v>2214</v>
       </c>
       <c r="B2214">
-        <v>494.6218533695257</v>
+        <v>494.6218533695256</v>
       </c>
     </row>
     <row r="2215" spans="1:2">
@@ -18103,7 +18103,7 @@
         <v>2220</v>
       </c>
       <c r="B2220">
-        <v>69.05398427146351</v>
+        <v>69.05398427146349</v>
       </c>
     </row>
     <row r="2221" spans="1:2">
@@ -18135,7 +18135,7 @@
         <v>2224</v>
       </c>
       <c r="B2224">
-        <v>42.37660683523723</v>
+        <v>42.37660683523722</v>
       </c>
     </row>
     <row r="2225" spans="1:2">
@@ -18143,7 +18143,7 @@
         <v>2225</v>
       </c>
       <c r="B2225">
-        <v>87.0508906135794</v>
+        <v>87.05089061357938</v>
       </c>
     </row>
     <row r="2226" spans="1:2">
@@ -18247,7 +18247,7 @@
         <v>2238</v>
       </c>
       <c r="B2238">
-        <v>618.9044887346424</v>
+        <v>618.9044887346423</v>
       </c>
     </row>
     <row r="2239" spans="1:2">
@@ -18255,7 +18255,7 @@
         <v>2239</v>
       </c>
       <c r="B2239">
-        <v>519.9226761371597</v>
+        <v>519.9226761371596</v>
       </c>
     </row>
     <row r="2240" spans="1:2">
@@ -18335,7 +18335,7 @@
         <v>2249</v>
       </c>
       <c r="B2249">
-        <v>71.11515288636875</v>
+        <v>71.11515288636873</v>
       </c>
     </row>
     <row r="2250" spans="1:2">
@@ -18407,7 +18407,7 @@
         <v>2258</v>
       </c>
       <c r="B2258">
-        <v>0.7574069308956076</v>
+        <v>0.7574069308956075</v>
       </c>
     </row>
     <row r="2259" spans="1:2">
@@ -18431,7 +18431,7 @@
         <v>2261</v>
       </c>
       <c r="B2261">
-        <v>834.9974883811988</v>
+        <v>834.9974883811987</v>
       </c>
     </row>
     <row r="2262" spans="1:2">
@@ -18439,7 +18439,7 @@
         <v>2262</v>
       </c>
       <c r="B2262">
-        <v>637.6434509466488</v>
+        <v>637.6434509466487</v>
       </c>
     </row>
     <row r="2263" spans="1:2">
@@ -19239,7 +19239,7 @@
         <v>2362</v>
       </c>
       <c r="B2362">
-        <v>47.58653068951996</v>
+        <v>47.58653068951995</v>
       </c>
     </row>
     <row r="2363" spans="1:2">
@@ -19415,7 +19415,7 @@
         <v>2384</v>
       </c>
       <c r="B2384">
-        <v>73.74722388458629</v>
+        <v>73.74722388458628</v>
       </c>
     </row>
     <row r="2385" spans="1:2">
@@ -19439,7 +19439,7 @@
         <v>2387</v>
       </c>
       <c r="B2387">
-        <v>5.942337687001303</v>
+        <v>5.942337687001302</v>
       </c>
     </row>
     <row r="2388" spans="1:2">
@@ -19599,7 +19599,7 @@
         <v>2407</v>
       </c>
       <c r="B2407">
-        <v>333.6467239640086</v>
+        <v>333.6467239640085</v>
       </c>
     </row>
     <row r="2408" spans="1:2">
@@ -19967,7 +19967,7 @@
         <v>2453</v>
       </c>
       <c r="B2453">
-        <v>393.8171389115694</v>
+        <v>393.8171389115693</v>
       </c>
     </row>
     <row r="2454" spans="1:2">
@@ -20567,7 +20567,7 @@
         <v>2528</v>
       </c>
       <c r="B2528">
-        <v>36.01989600667265</v>
+        <v>36.01989600667264</v>
       </c>
     </row>
     <row r="2529" spans="1:2">
@@ -20623,7 +20623,7 @@
         <v>2535</v>
       </c>
       <c r="B2535">
-        <v>0.1948878446442147</v>
+        <v>0.1948878446442146</v>
       </c>
     </row>
     <row r="2536" spans="1:2">
@@ -20831,7 +20831,7 @@
         <v>2561</v>
       </c>
       <c r="B2561">
-        <v>1.170004061964596</v>
+        <v>1.170004061964595</v>
       </c>
     </row>
     <row r="2562" spans="1:2">
@@ -20839,7 +20839,7 @@
         <v>2562</v>
       </c>
       <c r="B2562">
-        <v>5.75858214576064</v>
+        <v>5.758582145760639</v>
       </c>
     </row>
     <row r="2563" spans="1:2">
@@ -20951,7 +20951,7 @@
         <v>2576</v>
       </c>
       <c r="B2576">
-        <v>34.30308586219449</v>
+        <v>34.30308586219448</v>
       </c>
     </row>
     <row r="2577" spans="1:2">
@@ -20999,7 +20999,7 @@
         <v>2582</v>
       </c>
       <c r="B2582">
-        <v>5.436350538752491</v>
+        <v>5.43635053875249</v>
       </c>
     </row>
     <row r="2583" spans="1:2">
@@ -21351,7 +21351,7 @@
         <v>2626</v>
       </c>
       <c r="B2626">
-        <v>57.26754630962018</v>
+        <v>57.26754630962017</v>
       </c>
     </row>
     <row r="2627" spans="1:2">
@@ -21407,7 +21407,7 @@
         <v>2633</v>
       </c>
       <c r="B2633">
-        <v>0.6945197474196562</v>
+        <v>0.6945197474196561</v>
       </c>
     </row>
     <row r="2634" spans="1:2">
@@ -22471,7 +22471,7 @@
         <v>2766</v>
       </c>
       <c r="B2766">
-        <v>80.90372557765768</v>
+        <v>80.90372557765767</v>
       </c>
     </row>
     <row r="2767" spans="1:2">
@@ -22527,7 +22527,7 @@
         <v>2773</v>
       </c>
       <c r="B2773">
-        <v>0.0131995678960606</v>
+        <v>0.0131995678960605</v>
       </c>
     </row>
     <row r="2774" spans="1:2">
@@ -22719,7 +22719,7 @@
         <v>2797</v>
       </c>
       <c r="B2797">
-        <v>7.583095896946845</v>
+        <v>7.583095896946844</v>
       </c>
     </row>
     <row r="2798" spans="1:2">
@@ -23463,7 +23463,7 @@
         <v>2890</v>
       </c>
       <c r="B2890">
-        <v>56.99528331470379</v>
+        <v>56.99528331470378</v>
       </c>
     </row>
     <row r="2891" spans="1:2">
@@ -23487,7 +23487,7 @@
         <v>2893</v>
       </c>
       <c r="B2893">
-        <v>8.654680842708188</v>
+        <v>8.654680842708187</v>
       </c>
     </row>
     <row r="2894" spans="1:2">
@@ -23615,7 +23615,7 @@
         <v>2909</v>
       </c>
       <c r="B2909">
-        <v>332.210675874568</v>
+        <v>332.2106758745679</v>
       </c>
     </row>
     <row r="2910" spans="1:2">
@@ -23623,7 +23623,7 @@
         <v>2910</v>
       </c>
       <c r="B2910">
-        <v>345.4721403739939</v>
+        <v>345.4721403739938</v>
       </c>
     </row>
     <row r="2911" spans="1:2">
@@ -23679,7 +23679,7 @@
         <v>2917</v>
       </c>
       <c r="B2917">
-        <v>7.968689462513577</v>
+        <v>7.968689462513576</v>
       </c>
     </row>
     <row r="2918" spans="1:2">
@@ -23711,7 +23711,7 @@
         <v>2921</v>
       </c>
       <c r="B2921">
-        <v>7.155153566293549</v>
+        <v>7.155153566293548</v>
       </c>
     </row>
     <row r="2922" spans="1:2">
@@ -23815,7 +23815,7 @@
         <v>2934</v>
       </c>
       <c r="B2934">
-        <v>327.8790859231533</v>
+        <v>327.8790859231532</v>
       </c>
     </row>
     <row r="2935" spans="1:2">
@@ -23863,7 +23863,7 @@
         <v>2940</v>
       </c>
       <c r="B2940">
-        <v>3.268679908397717</v>
+        <v>3.268679908397716</v>
       </c>
     </row>
     <row r="2941" spans="1:2">
@@ -24983,7 +24983,7 @@
         <v>3080</v>
       </c>
       <c r="B3080">
-        <v>72.78155481219716</v>
+        <v>72.78155481219714</v>
       </c>
     </row>
     <row r="3081" spans="1:2">
@@ -24999,7 +24999,7 @@
         <v>3082</v>
       </c>
       <c r="B3082">
-        <v>62.47776323494158</v>
+        <v>62.47776323494157</v>
       </c>
     </row>
     <row r="3083" spans="1:2">
@@ -25039,7 +25039,7 @@
         <v>3087</v>
       </c>
       <c r="B3087">
-        <v>8.49727238784318</v>
+        <v>8.497272387843179</v>
       </c>
     </row>
     <row r="3088" spans="1:2">
@@ -25151,7 +25151,7 @@
         <v>3101</v>
       </c>
       <c r="B3101">
-        <v>232.6110695275871</v>
+        <v>232.611069527587</v>
       </c>
     </row>
     <row r="3102" spans="1:2">
@@ -25199,7 +25199,7 @@
         <v>3107</v>
       </c>
       <c r="B3107">
-        <v>8.205021948090087</v>
+        <v>8.205021948090085</v>
       </c>
     </row>
     <row r="3108" spans="1:2">
@@ -26135,7 +26135,7 @@
         <v>3224</v>
       </c>
       <c r="B3224">
-        <v>46.93180998915052</v>
+        <v>46.93180998915051</v>
       </c>
     </row>
     <row r="3225" spans="1:2">
@@ -26167,7 +26167,7 @@
         <v>3228</v>
       </c>
       <c r="B3228">
-        <v>3.169240904979922</v>
+        <v>3.169240904979921</v>
       </c>
     </row>
     <row r="3229" spans="1:2">
@@ -26183,7 +26183,7 @@
         <v>3230</v>
       </c>
       <c r="B3230">
-        <v>0.7657770397597756</v>
+        <v>0.7657770397597755</v>
       </c>
     </row>
     <row r="3231" spans="1:2">
@@ -26191,7 +26191,7 @@
         <v>3231</v>
       </c>
       <c r="B3231">
-        <v>0.186096885768529</v>
+        <v>0.1860968857685289</v>
       </c>
     </row>
     <row r="3232" spans="1:2">
@@ -26319,7 +26319,7 @@
         <v>3247</v>
       </c>
       <c r="B3247">
-        <v>63.8733675210469</v>
+        <v>63.87336752104689</v>
       </c>
     </row>
     <row r="3248" spans="1:2">
@@ -26495,7 +26495,7 @@
         <v>3269</v>
       </c>
       <c r="B3269">
-        <v>50.11895753459265</v>
+        <v>50.11895753459264</v>
       </c>
     </row>
     <row r="3270" spans="1:2">
@@ -26519,7 +26519,7 @@
         <v>3272</v>
       </c>
       <c r="B3272">
-        <v>22.79954937397096</v>
+        <v>22.79954937397095</v>
       </c>
     </row>
     <row r="3273" spans="1:2">
@@ -26543,7 +26543,7 @@
         <v>3275</v>
       </c>
       <c r="B3275">
-        <v>0.767790437795379</v>
+        <v>0.7677904377953789</v>
       </c>
     </row>
     <row r="3276" spans="1:2">
@@ -26551,7 +26551,7 @@
         <v>3276</v>
       </c>
       <c r="B3276">
-        <v>5.446432182482441</v>
+        <v>5.44643218248244</v>
       </c>
     </row>
     <row r="3277" spans="1:2">
@@ -26719,7 +26719,7 @@
         <v>3297</v>
       </c>
       <c r="B3297">
-        <v>43.24028718617221</v>
+        <v>43.2402871861722</v>
       </c>
     </row>
     <row r="3298" spans="1:2">
@@ -27271,7 +27271,7 @@
         <v>3366</v>
       </c>
       <c r="B3366">
-        <v>7.233667297550923</v>
+        <v>7.233667297550922</v>
       </c>
     </row>
     <row r="3367" spans="1:2">
@@ -27279,7 +27279,7 @@
         <v>3367</v>
       </c>
       <c r="B3367">
-        <v>3.91378787869907</v>
+        <v>3.913787878699069</v>
       </c>
     </row>
     <row r="3368" spans="1:2">
@@ -27655,7 +27655,7 @@
         <v>3414</v>
       </c>
       <c r="B3414">
-        <v>9.364381669930502</v>
+        <v>9.3643816699305</v>
       </c>
     </row>
     <row r="3415" spans="1:2">
@@ -27671,7 +27671,7 @@
         <v>3416</v>
       </c>
       <c r="B3416">
-        <v>4.178929247375989</v>
+        <v>4.178929247375988</v>
       </c>
     </row>
     <row r="3417" spans="1:2">
@@ -30191,7 +30191,7 @@
         <v>3731</v>
       </c>
       <c r="B3731">
-        <v>0.7322116137018917</v>
+        <v>0.7322116137018916</v>
       </c>
     </row>
     <row r="3732" spans="1:2">
@@ -30359,7 +30359,7 @@
         <v>3752</v>
       </c>
       <c r="B3752">
-        <v>0.8893299282386256</v>
+        <v>0.8893299282386254</v>
       </c>
     </row>
     <row r="3753" spans="1:2">
@@ -30375,7 +30375,7 @@
         <v>3754</v>
       </c>
       <c r="B3754">
-        <v>1.061177993178479</v>
+        <v>1.061177993178478</v>
       </c>
     </row>
     <row r="3755" spans="1:2">
@@ -32871,7 +32871,7 @@
         <v>4066</v>
       </c>
       <c r="B4066">
-        <v>0.917227360408799</v>
+        <v>0.9172273604087988</v>
       </c>
     </row>
     <row r="4067" spans="1:2">
@@ -33039,7 +33039,7 @@
         <v>4087</v>
       </c>
       <c r="B4087">
-        <v>3.063940480788901</v>
+        <v>3.0639404807889</v>
       </c>
     </row>
     <row r="4088" spans="1:2">
@@ -33079,7 +33079,7 @@
         <v>4092</v>
       </c>
       <c r="B4092">
-        <v>2.102186837476284</v>
+        <v>2.102186837476283</v>
       </c>
     </row>
     <row r="4093" spans="1:2">
@@ -33239,7 +33239,7 @@
         <v>4112</v>
       </c>
       <c r="B4112">
-        <v>6.927056376903424</v>
+        <v>6.927056376903423</v>
       </c>
     </row>
     <row r="4113" spans="1:2">
@@ -33423,7 +33423,7 @@
         <v>4135</v>
       </c>
       <c r="B4135">
-        <v>10.35543069426771</v>
+        <v>10.3554306942677</v>
       </c>
     </row>
     <row r="4136" spans="1:2">
@@ -34207,7 +34207,7 @@
         <v>4233</v>
       </c>
       <c r="B4233">
-        <v>1.543886508826421</v>
+        <v>1.54388650882642</v>
       </c>
     </row>
     <row r="4234" spans="1:2">
@@ -34391,7 +34391,7 @@
         <v>4256</v>
       </c>
       <c r="B4256">
-        <v>0.811317348457362</v>
+        <v>0.8113173484573619</v>
       </c>
     </row>
     <row r="4257" spans="1:2">
@@ -34439,7 +34439,7 @@
         <v>4262</v>
       </c>
       <c r="B4262">
-        <v>0.9318135060029742</v>
+        <v>0.931813506002974</v>
       </c>
     </row>
     <row r="4263" spans="1:2">
@@ -34591,7 +34591,7 @@
         <v>4281</v>
       </c>
       <c r="B4281">
-        <v>1.758745679400213</v>
+        <v>1.758745679400212</v>
       </c>
     </row>
     <row r="4282" spans="1:2">
@@ -34775,7 +34775,7 @@
         <v>4304</v>
       </c>
       <c r="B4304">
-        <v>0.7245624595928306</v>
+        <v>0.7245624595928305</v>
       </c>
     </row>
     <row r="4305" spans="1:2">
@@ -35567,7 +35567,7 @@
         <v>4403</v>
       </c>
       <c r="B4403">
-        <v>1.011420392234556</v>
+        <v>1.011420392234555</v>
       </c>
     </row>
     <row r="4404" spans="1:2">
@@ -35919,7 +35919,7 @@
         <v>4447</v>
       </c>
       <c r="B4447">
-        <v>0.5980378307819546</v>
+        <v>0.5980378307819545</v>
       </c>
     </row>
     <row r="4448" spans="1:2">
@@ -35951,7 +35951,7 @@
         <v>4451</v>
       </c>
       <c r="B4451">
-        <v>0.8610456422974192</v>
+        <v>0.8610456422974191</v>
       </c>
     </row>
     <row r="4452" spans="1:2">
@@ -36135,7 +36135,7 @@
         <v>4474</v>
       </c>
       <c r="B4474">
-        <v>0.5609145223147221</v>
+        <v>0.5609145223147219</v>
       </c>
     </row>
     <row r="4475" spans="1:2">
@@ -36151,7 +36151,7 @@
         <v>4476</v>
       </c>
       <c r="B4476">
-        <v>0.3997459660236884</v>
+        <v>0.3997459660236883</v>
       </c>
     </row>
     <row r="4477" spans="1:2">
@@ -36703,7 +36703,7 @@
         <v>4545</v>
       </c>
       <c r="B4545">
-        <v>0.648871002437765</v>
+        <v>0.6488710024377649</v>
       </c>
     </row>
     <row r="4546" spans="1:2">
@@ -36903,7 +36903,7 @@
         <v>4570</v>
       </c>
       <c r="B4570">
-        <v>0.4489496627045417</v>
+        <v>0.4489496627045416</v>
       </c>
     </row>
     <row r="4571" spans="1:2">
@@ -36911,7 +36911,7 @@
         <v>4571</v>
       </c>
       <c r="B4571">
-        <v>0.7737837405360036</v>
+        <v>0.7737837405360035</v>
       </c>
     </row>
     <row r="4572" spans="1:2">
@@ -37447,7 +37447,7 @@
         <v>4638</v>
       </c>
       <c r="B4638">
-        <v>8.868124480165246</v>
+        <v>8.868124480165244</v>
       </c>
     </row>
     <row r="4639" spans="1:2">
@@ -37511,7 +37511,7 @@
         <v>4646</v>
       </c>
       <c r="B4646">
-        <v>0.7658678917817606</v>
+        <v>0.7658678917817605</v>
       </c>
     </row>
     <row r="4647" spans="1:2">
@@ -38415,7 +38415,7 @@
         <v>4759</v>
       </c>
       <c r="B4759">
-        <v>0.6999151852414115</v>
+        <v>0.6999151852414114</v>
       </c>
     </row>
     <row r="4760" spans="1:2">
@@ -39383,7 +39383,7 @@
         <v>4880</v>
       </c>
       <c r="B4880">
-        <v>0.2043402648541591</v>
+        <v>0.204340264854159</v>
       </c>
     </row>
     <row r="4881" spans="1:2">
@@ -39575,7 +39575,7 @@
         <v>4904</v>
       </c>
       <c r="B4904">
-        <v>0.8892302840854807</v>
+        <v>0.8892302840854805</v>
       </c>
     </row>
     <row r="4905" spans="1:2">
@@ -39607,7 +39607,7 @@
         <v>4908</v>
       </c>
       <c r="B4908">
-        <v>0.4324907931733205</v>
+        <v>0.4324907931733204</v>
       </c>
     </row>
     <row r="4909" spans="1:2">
@@ -42655,7 +42655,7 @@
         <v>5289</v>
       </c>
       <c r="B5289">
-        <v>6.806193880559485</v>
+        <v>6.806193880559484</v>
       </c>
     </row>
     <row r="5290" spans="1:2">
@@ -42823,7 +42823,7 @@
         <v>5310</v>
       </c>
       <c r="B5310">
-        <v>45.11770025983679</v>
+        <v>45.11770025983678</v>
       </c>
     </row>
     <row r="5311" spans="1:2">
@@ -43623,7 +43623,7 @@
         <v>5410</v>
       </c>
       <c r="B5410">
-        <v>0.9720228525073108</v>
+        <v>0.9720228525073106</v>
       </c>
     </row>
     <row r="5411" spans="1:2">
@@ -44191,7 +44191,7 @@
         <v>5481</v>
       </c>
       <c r="B5481">
-        <v>12.34368323475401</v>
+        <v>12.343683234754</v>
       </c>
     </row>
     <row r="5482" spans="1:2">
@@ -45335,7 +45335,7 @@
         <v>5624</v>
       </c>
       <c r="B5624">
-        <v>22.4247994368347</v>
+        <v>22.42479943683469</v>
       </c>
     </row>
     <row r="5625" spans="1:2">
@@ -45359,7 +45359,7 @@
         <v>5627</v>
       </c>
       <c r="B5627">
-        <v>2.092084678773627</v>
+        <v>2.092084678773626</v>
       </c>
     </row>
     <row r="5628" spans="1:2">
@@ -46479,7 +46479,7 @@
         <v>5767</v>
       </c>
       <c r="B5767">
-        <v>2.533449662997613</v>
+        <v>2.533449662997612</v>
       </c>
     </row>
     <row r="5768" spans="1:2">
@@ -46711,7 +46711,7 @@
         <v>5796</v>
       </c>
       <c r="B5796">
-        <v>1.263945052697104</v>
+        <v>1.263945052697103</v>
       </c>
     </row>
     <row r="5797" spans="1:2">
@@ -49023,7 +49023,7 @@
         <v>6085</v>
       </c>
       <c r="B6085">
-        <v>0.6605059226726203</v>
+        <v>0.6605059226726202</v>
       </c>
     </row>
     <row r="6086" spans="1:2">
@@ -50343,7 +50343,7 @@
         <v>6250</v>
       </c>
       <c r="B6250">
-        <v>2.016267201071937</v>
+        <v>2.016267201071936</v>
       </c>
     </row>
     <row r="6251" spans="1:2">
@@ -50359,7 +50359,7 @@
         <v>6252</v>
       </c>
       <c r="B6252">
-        <v>0.5285594796465095</v>
+        <v>0.5285594796465094</v>
       </c>
     </row>
     <row r="6253" spans="1:2">
@@ -50503,7 +50503,7 @@
         <v>6270</v>
       </c>
       <c r="B6270">
-        <v>4.063078265793159</v>
+        <v>4.063078265793158</v>
       </c>
     </row>
     <row r="6271" spans="1:2">
@@ -50511,7 +50511,7 @@
         <v>6271</v>
       </c>
       <c r="B6271">
-        <v>9.156066775650018</v>
+        <v>9.156066775650016</v>
       </c>
     </row>
     <row r="6272" spans="1:2">
@@ -50527,7 +50527,7 @@
         <v>6273</v>
       </c>
       <c r="B6273">
-        <v>3.84145794635745</v>
+        <v>3.841457946357449</v>
       </c>
     </row>
     <row r="6274" spans="1:2">
@@ -50687,7 +50687,7 @@
         <v>6293</v>
       </c>
       <c r="B6293">
-        <v>81.10184159979275</v>
+        <v>81.10184159979273</v>
       </c>
     </row>
     <row r="6294" spans="1:2">
@@ -50727,7 +50727,7 @@
         <v>6298</v>
       </c>
       <c r="B6298">
-        <v>46.20294231599975</v>
+        <v>46.20294231599974</v>
       </c>
     </row>
     <row r="6299" spans="1:2">
@@ -50735,7 +50735,7 @@
         <v>6299</v>
       </c>
       <c r="B6299">
-        <v>59.83572782140955</v>
+        <v>59.83572782140954</v>
       </c>
     </row>
     <row r="6300" spans="1:2">
@@ -50759,7 +50759,7 @@
         <v>6302</v>
       </c>
       <c r="B6302">
-        <v>5.838414696691991</v>
+        <v>5.83841469669199</v>
       </c>
     </row>
     <row r="6303" spans="1:2">
@@ -50879,7 +50879,7 @@
         <v>6317</v>
       </c>
       <c r="B6317">
-        <v>234.5497344483319</v>
+        <v>234.5497344483318</v>
       </c>
     </row>
     <row r="6318" spans="1:2">
@@ -51519,7 +51519,7 @@
         <v>6397</v>
       </c>
       <c r="B6397">
-        <v>6.286139322454928</v>
+        <v>6.286139322454927</v>
       </c>
     </row>
     <row r="6398" spans="1:2">
@@ -51679,7 +51679,7 @@
         <v>6417</v>
       </c>
       <c r="B6417">
-        <v>83.57360273986254</v>
+        <v>83.57360273986252</v>
       </c>
     </row>
     <row r="6418" spans="1:2">
@@ -51735,7 +51735,7 @@
         <v>6424</v>
       </c>
       <c r="B6424">
-        <v>0.435474256346893</v>
+        <v>0.4354742563468929</v>
       </c>
     </row>
     <row r="6425" spans="1:2">
@@ -51887,7 +51887,7 @@
         <v>6443</v>
       </c>
       <c r="B6443">
-        <v>3.399917119510267</v>
+        <v>3.399917119510266</v>
       </c>
     </row>
     <row r="6444" spans="1:2">
@@ -52071,7 +52071,7 @@
         <v>6466</v>
       </c>
       <c r="B6466">
-        <v>7.091205465657644</v>
+        <v>7.091205465657643</v>
       </c>
     </row>
     <row r="6467" spans="1:2">
@@ -52087,7 +52087,7 @@
         <v>6468</v>
       </c>
       <c r="B6468">
-        <v>6.320487248186038</v>
+        <v>6.320487248186037</v>
       </c>
     </row>
     <row r="6469" spans="1:2">
@@ -52095,7 +52095,7 @@
         <v>6469</v>
       </c>
       <c r="B6469">
-        <v>0.8876389083455496</v>
+        <v>0.8876389083455495</v>
       </c>
     </row>
     <row r="6470" spans="1:2">
@@ -52807,7 +52807,7 @@
         <v>6558</v>
       </c>
       <c r="B6558">
-        <v>13.62856528245308</v>
+        <v>13.62856528245307</v>
       </c>
     </row>
     <row r="6559" spans="1:2">
@@ -53023,7 +53023,7 @@
         <v>6585</v>
       </c>
       <c r="B6585">
-        <v>86.75019972791286</v>
+        <v>86.75019972791284</v>
       </c>
     </row>
     <row r="6586" spans="1:2">
@@ -53031,7 +53031,7 @@
         <v>6586</v>
       </c>
       <c r="B6586">
-        <v>52.20796789817072</v>
+        <v>52.20796789817071</v>
       </c>
     </row>
     <row r="6587" spans="1:2">
@@ -53095,7 +53095,7 @@
         <v>6594</v>
       </c>
       <c r="B6594">
-        <v>12.2378552826934</v>
+        <v>12.23785528269339</v>
       </c>
     </row>
     <row r="6595" spans="1:2">
@@ -53199,7 +53199,7 @@
         <v>6607</v>
       </c>
       <c r="B6607">
-        <v>402.577032257157</v>
+        <v>402.5770322571569</v>
       </c>
     </row>
     <row r="6608" spans="1:2">
@@ -53287,7 +53287,7 @@
         <v>6618</v>
       </c>
       <c r="B6618">
-        <v>32.5144733132443</v>
+        <v>32.51447331324429</v>
       </c>
     </row>
     <row r="6619" spans="1:2">
@@ -53455,7 +53455,7 @@
         <v>6639</v>
       </c>
       <c r="B6639">
-        <v>0.6136321407491249</v>
+        <v>0.6136321407491248</v>
       </c>
     </row>
     <row r="6640" spans="1:2">
@@ -53599,7 +53599,7 @@
         <v>6657</v>
       </c>
       <c r="B6657">
-        <v>51.91753449885732</v>
+        <v>51.91753449885731</v>
       </c>
     </row>
     <row r="6658" spans="1:2">
@@ -54535,7 +54535,7 @@
         <v>6774</v>
       </c>
       <c r="B6774">
-        <v>223.1806296455424</v>
+        <v>223.1806296455423</v>
       </c>
     </row>
     <row r="6775" spans="1:2">
@@ -54591,7 +54591,7 @@
         <v>6781</v>
       </c>
       <c r="B6781">
-        <v>4.448671831359891</v>
+        <v>4.44867183135989</v>
       </c>
     </row>
     <row r="6782" spans="1:2">
@@ -54727,7 +54727,7 @@
         <v>6798</v>
       </c>
       <c r="B6798">
-        <v>357.8338767847294</v>
+        <v>357.8338767847293</v>
       </c>
     </row>
     <row r="6799" spans="1:2">
@@ -54919,7 +54919,7 @@
         <v>6822</v>
       </c>
       <c r="B6822">
-        <v>476.507132469868</v>
+        <v>476.5071324698679</v>
       </c>
     </row>
     <row r="6823" spans="1:2">
@@ -54943,7 +54943,7 @@
         <v>6825</v>
       </c>
       <c r="B6825">
-        <v>178.7686444468021</v>
+        <v>178.768644446802</v>
       </c>
     </row>
     <row r="6826" spans="1:2">
@@ -54983,7 +54983,7 @@
         <v>6830</v>
       </c>
       <c r="B6830">
-        <v>54.82919526795779</v>
+        <v>54.82919526795778</v>
       </c>
     </row>
     <row r="6831" spans="1:2">
@@ -54999,7 +54999,7 @@
         <v>6832</v>
       </c>
       <c r="B6832">
-        <v>58.14881092287485</v>
+        <v>58.14881092287484</v>
       </c>
     </row>
     <row r="6833" spans="1:2">
@@ -55287,7 +55287,7 @@
         <v>6868</v>
       </c>
       <c r="B6868">
-        <v>0.1845925521270803</v>
+        <v>0.1845925521270802</v>
       </c>
     </row>
     <row r="6869" spans="1:2">
@@ -55335,7 +55335,7 @@
         <v>6874</v>
       </c>
       <c r="B6874">
-        <v>0.1924594580178668</v>
+        <v>0.1924594580178667</v>
       </c>
     </row>
     <row r="6875" spans="1:2">
@@ -55495,7 +55495,7 @@
         <v>6894</v>
       </c>
       <c r="B6894">
-        <v>556.2546928000066</v>
+        <v>556.2546928000065</v>
       </c>
     </row>
     <row r="6895" spans="1:2">
@@ -55767,7 +55767,7 @@
         <v>6928</v>
       </c>
       <c r="B6928">
-        <v>5.714211190507313</v>
+        <v>5.714211190507312</v>
       </c>
     </row>
     <row r="6929" spans="1:2">
@@ -55967,7 +55967,7 @@
         <v>6953</v>
       </c>
       <c r="B6953">
-        <v>15.42922305109225</v>
+        <v>15.42922305109224</v>
       </c>
     </row>
     <row r="6954" spans="1:2">
@@ -56119,7 +56119,7 @@
         <v>6972</v>
       </c>
       <c r="B6972">
-        <v>8.980693066115069</v>
+        <v>8.980693066115068</v>
       </c>
     </row>
     <row r="6973" spans="1:2">
@@ -56159,7 +56159,7 @@
         <v>6977</v>
       </c>
       <c r="B6977">
-        <v>2.066103931196299</v>
+        <v>2.066103931196298</v>
       </c>
     </row>
     <row r="6978" spans="1:2">
@@ -56831,7 +56831,7 @@
         <v>7061</v>
       </c>
       <c r="B7061">
-        <v>15.82243646366418</v>
+        <v>15.82243646366417</v>
       </c>
     </row>
     <row r="7062" spans="1:2">
@@ -56879,7 +56879,7 @@
         <v>7067</v>
       </c>
       <c r="B7067">
-        <v>4.739486223023544</v>
+        <v>4.739486223023543</v>
       </c>
     </row>
     <row r="7068" spans="1:2">
@@ -57071,7 +57071,7 @@
         <v>7091</v>
       </c>
       <c r="B7091">
-        <v>7.027931428410659</v>
+        <v>7.027931428410658</v>
       </c>
     </row>
     <row r="7092" spans="1:2">
@@ -57095,7 +57095,7 @@
         <v>7094</v>
       </c>
       <c r="B7094">
-        <v>0.6967910479692816</v>
+        <v>0.6967910479692815</v>
       </c>
     </row>
     <row r="7095" spans="1:2">
@@ -57431,7 +57431,7 @@
         <v>7136</v>
       </c>
       <c r="B7136">
-        <v>88.75773634274307</v>
+        <v>88.75773634274306</v>
       </c>
     </row>
     <row r="7137" spans="1:2">
@@ -57463,7 +57463,7 @@
         <v>7140</v>
       </c>
       <c r="B7140">
-        <v>7.798151425116541</v>
+        <v>7.79815142511654</v>
       </c>
     </row>
     <row r="7141" spans="1:2">
@@ -57511,7 +57511,7 @@
         <v>7146</v>
       </c>
       <c r="B7146">
-        <v>4.889743744545216</v>
+        <v>4.889743744545215</v>
       </c>
     </row>
     <row r="7147" spans="1:2">
@@ -57679,7 +57679,7 @@
         <v>7167</v>
       </c>
       <c r="B7167">
-        <v>6.429157989321665</v>
+        <v>6.429157989321664</v>
       </c>
     </row>
     <row r="7168" spans="1:2">
@@ -58455,7 +58455,7 @@
         <v>7264</v>
       </c>
       <c r="B7264">
-        <v>53.50715181255646</v>
+        <v>53.50715181255645</v>
       </c>
     </row>
     <row r="7265" spans="1:2">
@@ -58759,7 +58759,7 @@
         <v>7302</v>
       </c>
       <c r="B7302">
-        <v>452.7068334201801</v>
+        <v>452.70683342018</v>
       </c>
     </row>
     <row r="7303" spans="1:2">
@@ -58767,7 +58767,7 @@
         <v>7303</v>
       </c>
       <c r="B7303">
-        <v>435.6647525220229</v>
+        <v>435.6647525220228</v>
       </c>
     </row>
     <row r="7304" spans="1:2">
@@ -58951,7 +58951,7 @@
         <v>7326</v>
       </c>
       <c r="B7326">
-        <v>589.626691972374</v>
+        <v>589.6266919723739</v>
       </c>
     </row>
     <row r="7327" spans="1:2">
@@ -58975,7 +58975,7 @@
         <v>7329</v>
       </c>
       <c r="B7329">
-        <v>303.4164463260908</v>
+        <v>303.4164463260907</v>
       </c>
     </row>
     <row r="7330" spans="1:2">
@@ -59007,7 +59007,7 @@
         <v>7333</v>
       </c>
       <c r="B7333">
-        <v>73.22204058330516</v>
+        <v>73.22204058330514</v>
       </c>
     </row>
     <row r="7334" spans="1:2">
@@ -59143,7 +59143,7 @@
         <v>7350</v>
       </c>
       <c r="B7350">
-        <v>8.173340968810795</v>
+        <v>8.173340968810793</v>
       </c>
     </row>
     <row r="7351" spans="1:2">
@@ -59527,7 +59527,7 @@
         <v>7398</v>
       </c>
       <c r="B7398">
-        <v>811.4052697689605</v>
+        <v>811.4052697689604</v>
       </c>
     </row>
     <row r="7399" spans="1:2">
@@ -59551,7 +59551,7 @@
         <v>7401</v>
       </c>
       <c r="B7401">
-        <v>349.4608372101748</v>
+        <v>349.4608372101747</v>
       </c>
     </row>
     <row r="7402" spans="1:2">
@@ -59815,7 +59815,7 @@
         <v>7434</v>
       </c>
       <c r="B7434">
-        <v>51.59662171152315</v>
+        <v>51.59662171152314</v>
       </c>
     </row>
     <row r="7435" spans="1:2">
@@ -59911,7 +59911,7 @@
         <v>7446</v>
       </c>
       <c r="B7446">
-        <v>325.5638247177287</v>
+        <v>325.5638247177286</v>
       </c>
     </row>
     <row r="7447" spans="1:2">
@@ -60111,7 +60111,7 @@
         <v>7471</v>
       </c>
       <c r="B7471">
-        <v>467.2050577027569</v>
+        <v>467.2050577027568</v>
       </c>
     </row>
     <row r="7472" spans="1:2">
@@ -60191,7 +60191,7 @@
         <v>7481</v>
       </c>
       <c r="B7481">
-        <v>154.6298483474604</v>
+        <v>154.6298483474603</v>
       </c>
     </row>
     <row r="7482" spans="1:2">
@@ -60295,7 +60295,7 @@
         <v>7494</v>
       </c>
       <c r="B7494">
-        <v>830.2321532925653</v>
+        <v>830.2321532925652</v>
       </c>
     </row>
     <row r="7495" spans="1:2">
@@ -60583,7 +60583,7 @@
         <v>7530</v>
       </c>
       <c r="B7530">
-        <v>4.31933958199864</v>
+        <v>4.319339581998639</v>
       </c>
     </row>
     <row r="7531" spans="1:2">
@@ -60615,7 +60615,7 @@
         <v>7534</v>
       </c>
       <c r="B7534">
-        <v>24.49308967797941</v>
+        <v>24.4930896779794</v>
       </c>
     </row>
     <row r="7535" spans="1:2">
@@ -60791,7 +60791,7 @@
         <v>7556</v>
       </c>
       <c r="B7556">
-        <v>2.954507754952755</v>
+        <v>2.954507754952754</v>
       </c>
     </row>
     <row r="7557" spans="1:2">
@@ -60983,7 +60983,7 @@
         <v>7580</v>
       </c>
       <c r="B7580">
-        <v>1.504195898060515</v>
+        <v>1.504195898060514</v>
       </c>
     </row>
     <row r="7581" spans="1:2">
@@ -60991,7 +60991,7 @@
         <v>7581</v>
       </c>
       <c r="B7581">
-        <v>3.041725696058371</v>
+        <v>3.04172569605837</v>
       </c>
     </row>
     <row r="7582" spans="1:2">
@@ -61063,7 +61063,7 @@
         <v>7590</v>
       </c>
       <c r="B7590">
-        <v>1286.537899067507</v>
+        <v>1286.537899067506</v>
       </c>
     </row>
     <row r="7591" spans="1:2">
@@ -61079,7 +61079,7 @@
         <v>7592</v>
       </c>
       <c r="B7592">
-        <v>777.7519223994782</v>
+        <v>777.7519223994781</v>
       </c>
     </row>
     <row r="7593" spans="1:2">
@@ -61247,7 +61247,7 @@
         <v>7613</v>
       </c>
       <c r="B7613">
-        <v>52.01190337330628</v>
+        <v>52.01190337330627</v>
       </c>
     </row>
     <row r="7614" spans="1:2">
@@ -61351,7 +61351,7 @@
         <v>7626</v>
       </c>
       <c r="B7626">
-        <v>389.4562418562886</v>
+        <v>389.4562418562885</v>
       </c>
     </row>
     <row r="7627" spans="1:2">
@@ -61463,7 +61463,7 @@
         <v>7640</v>
       </c>
       <c r="B7640">
-        <v>691.0644398738389</v>
+        <v>691.0644398738388</v>
       </c>
     </row>
     <row r="7641" spans="1:2">
@@ -61527,7 +61527,7 @@
         <v>7648</v>
       </c>
       <c r="B7648">
-        <v>117.3532637270079</v>
+        <v>117.3532637270078</v>
       </c>
     </row>
     <row r="7649" spans="1:2">
@@ -61647,7 +61647,7 @@
         <v>7663</v>
       </c>
       <c r="B7663">
-        <v>683.5911283879745</v>
+        <v>683.5911283879744</v>
       </c>
     </row>
     <row r="7664" spans="1:2">
@@ -61663,7 +61663,7 @@
         <v>7665</v>
       </c>
       <c r="B7665">
-        <v>447.4315547242759</v>
+        <v>447.4315547242758</v>
       </c>
     </row>
     <row r="7666" spans="1:2">
@@ -61687,7 +61687,7 @@
         <v>7668</v>
       </c>
       <c r="B7668">
-        <v>262.5570682580034</v>
+        <v>262.5570682580033</v>
       </c>
     </row>
     <row r="7669" spans="1:2">
@@ -61735,7 +61735,7 @@
         <v>7674</v>
       </c>
       <c r="B7674">
-        <v>313.6270413130521</v>
+        <v>313.627041313052</v>
       </c>
     </row>
     <row r="7675" spans="1:2">
@@ -61799,7 +61799,7 @@
         <v>7682</v>
       </c>
       <c r="B7682">
-        <v>0.6547236310798321</v>
+        <v>0.654723631079832</v>
       </c>
     </row>
     <row r="7683" spans="1:2">
@@ -61847,7 +61847,7 @@
         <v>7688</v>
       </c>
       <c r="B7688">
-        <v>16.79091901802446</v>
+        <v>16.79091901802445</v>
       </c>
     </row>
     <row r="7689" spans="1:2">
@@ -61983,7 +61983,7 @@
         <v>7705</v>
       </c>
       <c r="B7705">
-        <v>4.31819660494786</v>
+        <v>4.318196604947859</v>
       </c>
     </row>
     <row r="7706" spans="1:2">
@@ -61999,7 +61999,7 @@
         <v>7707</v>
       </c>
       <c r="B7707">
-        <v>8.87325322334182</v>
+        <v>8.873253223341818</v>
       </c>
     </row>
     <row r="7708" spans="1:2">
@@ -62487,7 +62487,7 @@
         <v>7768</v>
       </c>
       <c r="B7768">
-        <v>87.45093258135213</v>
+        <v>87.45093258135212</v>
       </c>
     </row>
     <row r="7769" spans="1:2">
@@ -62607,7 +62607,7 @@
         <v>7783</v>
       </c>
       <c r="B7783">
-        <v>614.707711461012</v>
+        <v>614.7077114610119</v>
       </c>
     </row>
     <row r="7784" spans="1:2">
@@ -62679,7 +62679,7 @@
         <v>7792</v>
       </c>
       <c r="B7792">
-        <v>77.37280570386579</v>
+        <v>77.37280570386578</v>
       </c>
     </row>
     <row r="7793" spans="1:2">
@@ -62807,7 +62807,7 @@
         <v>7808</v>
       </c>
       <c r="B7808">
-        <v>0.6907655074144042</v>
+        <v>0.6907655074144041</v>
       </c>
     </row>
     <row r="7809" spans="1:2">
@@ -63071,7 +63071,7 @@
         <v>7841</v>
       </c>
       <c r="B7841">
-        <v>22.47890035057158</v>
+        <v>22.47890035057157</v>
       </c>
     </row>
     <row r="7842" spans="1:2">
@@ -63631,7 +63631,7 @@
         <v>7911</v>
       </c>
       <c r="B7911">
-        <v>68.62873819436589</v>
+        <v>68.62873819436588</v>
       </c>
     </row>
     <row r="7912" spans="1:2">
@@ -63655,7 +63655,7 @@
         <v>7914</v>
       </c>
       <c r="B7914">
-        <v>180.4350463726305</v>
+        <v>180.4350463726304</v>
       </c>
     </row>
     <row r="7915" spans="1:2">
@@ -63999,7 +63999,7 @@
         <v>7957</v>
       </c>
       <c r="B7957">
-        <v>7.848032115896701</v>
+        <v>7.8480321158967</v>
       </c>
     </row>
     <row r="7958" spans="1:2">
@@ -64183,7 +64183,7 @@
         <v>7980</v>
       </c>
       <c r="B7980">
-        <v>12.46703683492657</v>
+        <v>12.46703683492656</v>
       </c>
     </row>
     <row r="7981" spans="1:2">
@@ -64191,7 +64191,7 @@
         <v>7981</v>
       </c>
       <c r="B7981">
-        <v>4.359255857464315</v>
+        <v>4.359255857464314</v>
       </c>
     </row>
     <row r="7982" spans="1:2">
@@ -64431,7 +64431,7 @@
         <v>8011</v>
       </c>
       <c r="B8011">
-        <v>317.4897176026086</v>
+        <v>317.4897176026085</v>
       </c>
     </row>
     <row r="8012" spans="1:2">
@@ -64543,7 +64543,7 @@
         <v>8025</v>
       </c>
       <c r="B8025">
-        <v>8.188463434405721</v>
+        <v>8.188463434405719</v>
       </c>
     </row>
     <row r="8026" spans="1:2">
@@ -64695,7 +64695,7 @@
         <v>8044</v>
       </c>
       <c r="B8044">
-        <v>60.46495134141546</v>
+        <v>60.46495134141545</v>
       </c>
     </row>
     <row r="8045" spans="1:2">
@@ -64703,7 +64703,7 @@
         <v>8045</v>
       </c>
       <c r="B8045">
-        <v>78.60546249247541</v>
+        <v>78.6054624924754</v>
       </c>
     </row>
     <row r="8046" spans="1:2">
@@ -64735,7 +64735,7 @@
         <v>8049</v>
       </c>
       <c r="B8049">
-        <v>52.25896225889779</v>
+        <v>52.25896225889778</v>
       </c>
     </row>
     <row r="8050" spans="1:2">
@@ -64879,7 +64879,7 @@
         <v>8067</v>
       </c>
       <c r="B8067">
-        <v>36.71066444479744</v>
+        <v>36.71066444479743</v>
       </c>
     </row>
     <row r="8068" spans="1:2">
@@ -64887,7 +64887,7 @@
         <v>8068</v>
       </c>
       <c r="B8068">
-        <v>46.00717086217397</v>
+        <v>46.00717086217396</v>
       </c>
     </row>
     <row r="8069" spans="1:2">
@@ -65159,7 +65159,7 @@
         <v>8102</v>
       </c>
       <c r="B8102">
-        <v>133.1119865468671</v>
+        <v>133.111986546867</v>
       </c>
     </row>
     <row r="8103" spans="1:2">
@@ -65167,7 +65167,7 @@
         <v>8103</v>
       </c>
       <c r="B8103">
-        <v>95.69502089889578</v>
+        <v>95.69502089889576</v>
       </c>
     </row>
     <row r="8104" spans="1:2">
@@ -65279,7 +65279,7 @@
         <v>8117</v>
       </c>
       <c r="B8117">
-        <v>0.7960600701846524</v>
+        <v>0.7960600701846523</v>
       </c>
     </row>
     <row r="8118" spans="1:2">
@@ -65519,7 +65519,7 @@
         <v>8147</v>
       </c>
       <c r="B8147">
-        <v>334.8072852771075</v>
+        <v>334.8072852771074</v>
       </c>
     </row>
     <row r="8148" spans="1:2">
@@ -65775,7 +65775,7 @@
         <v>8179</v>
       </c>
       <c r="B8179">
-        <v>660.4473084648881</v>
+        <v>660.447308464888</v>
       </c>
     </row>
     <row r="8180" spans="1:2">
@@ -65815,7 +65815,7 @@
         <v>8184</v>
       </c>
       <c r="B8184">
-        <v>20.36916986456016</v>
+        <v>20.36916986456015</v>
       </c>
     </row>
     <row r="8185" spans="1:2">
@@ -65847,7 +65847,7 @@
         <v>8188</v>
       </c>
       <c r="B8188">
-        <v>86.1494040986571</v>
+        <v>86.14940409865709</v>
       </c>
     </row>
     <row r="8189" spans="1:2">
@@ -65863,7 +65863,7 @@
         <v>8190</v>
       </c>
       <c r="B8190">
-        <v>117.7679592467137</v>
+        <v>117.7679592467136</v>
       </c>
     </row>
     <row r="8191" spans="1:2">
@@ -65927,7 +65927,7 @@
         <v>8198</v>
       </c>
       <c r="B8198">
-        <v>47.49245488610967</v>
+        <v>47.49245488610966</v>
       </c>
     </row>
     <row r="8199" spans="1:2">
@@ -65935,7 +65935,7 @@
         <v>8199</v>
       </c>
       <c r="B8199">
-        <v>43.15588272703774</v>
+        <v>43.15588272703773</v>
       </c>
     </row>
     <row r="8200" spans="1:2">
@@ -65959,7 +65959,7 @@
         <v>8202</v>
       </c>
       <c r="B8202">
-        <v>57.11221865912967</v>
+        <v>57.11221865912966</v>
       </c>
     </row>
     <row r="8203" spans="1:2">
@@ -66151,7 +66151,7 @@
         <v>8226</v>
       </c>
       <c r="B8226">
-        <v>50.90350870508907</v>
+        <v>50.90350870508906</v>
       </c>
     </row>
     <row r="8227" spans="1:2">
@@ -66159,7 +66159,7 @@
         <v>8227</v>
       </c>
       <c r="B8227">
-        <v>66.36154063928173</v>
+        <v>66.36154063928171</v>
       </c>
     </row>
     <row r="8228" spans="1:2">
@@ -66167,7 +66167,7 @@
         <v>8228</v>
       </c>
       <c r="B8228">
-        <v>84.75262752839713</v>
+        <v>84.75262752839711</v>
       </c>
     </row>
     <row r="8229" spans="1:2">
@@ -66343,7 +66343,7 @@
         <v>8250</v>
       </c>
       <c r="B8250">
-        <v>552.6528497348587</v>
+        <v>552.6528497348586</v>
       </c>
     </row>
     <row r="8251" spans="1:2">
@@ -66655,7 +66655,7 @@
         <v>8289</v>
       </c>
       <c r="B8289">
-        <v>653.9264778546732</v>
+        <v>653.9264778546731</v>
       </c>
     </row>
     <row r="8290" spans="1:2">
@@ -66799,7 +66799,7 @@
         <v>8307</v>
       </c>
       <c r="B8307">
-        <v>48.14952015478841</v>
+        <v>48.1495201547884</v>
       </c>
     </row>
     <row r="8308" spans="1:2">
@@ -66847,7 +66847,7 @@
         <v>8313</v>
       </c>
       <c r="B8313">
-        <v>786.593875635891</v>
+        <v>786.5938756358909</v>
       </c>
     </row>
     <row r="8314" spans="1:2">
@@ -66863,7 +66863,7 @@
         <v>8315</v>
       </c>
       <c r="B8315">
-        <v>665.4910610402499</v>
+        <v>665.4910610402497</v>
       </c>
     </row>
     <row r="8316" spans="1:2">
@@ -66919,7 +66919,7 @@
         <v>8322</v>
       </c>
       <c r="B8322">
-        <v>561.5094565232046</v>
+        <v>561.5094565232044</v>
       </c>
     </row>
     <row r="8323" spans="1:2">
@@ -66999,7 +66999,7 @@
         <v>8332</v>
       </c>
       <c r="B8332">
-        <v>78.1597014426715</v>
+        <v>78.15970144267149</v>
       </c>
     </row>
     <row r="8333" spans="1:2">
@@ -67007,7 +67007,7 @@
         <v>8333</v>
       </c>
       <c r="B8333">
-        <v>84.21279067518293</v>
+        <v>84.21279067518292</v>
       </c>
     </row>
     <row r="8334" spans="1:2">
@@ -67079,7 +67079,7 @@
         <v>8342</v>
       </c>
       <c r="B8342">
-        <v>193.6188470468111</v>
+        <v>193.618847046811</v>
       </c>
     </row>
     <row r="8343" spans="1:2">
@@ -67119,7 +67119,7 @@
         <v>8347</v>
       </c>
       <c r="B8347">
-        <v>548.0692186901953</v>
+        <v>548.0692186901952</v>
       </c>
     </row>
     <row r="8348" spans="1:2">
@@ -67207,7 +67207,7 @@
         <v>8358</v>
       </c>
       <c r="B8358">
-        <v>50.96476055216929</v>
+        <v>50.96476055216928</v>
       </c>
     </row>
     <row r="8359" spans="1:2">
@@ -67319,7 +67319,7 @@
         <v>8372</v>
       </c>
       <c r="B8372">
-        <v>7.186658702949644</v>
+        <v>7.186658702949643</v>
       </c>
     </row>
     <row r="8373" spans="1:2">
@@ -67359,7 +67359,7 @@
         <v>8377</v>
       </c>
       <c r="B8377">
-        <v>31.55847558513099</v>
+        <v>31.55847558513098</v>
       </c>
     </row>
     <row r="8378" spans="1:2">
@@ -67415,7 +67415,7 @@
         <v>8384</v>
       </c>
       <c r="B8384">
-        <v>102.1692532139636</v>
+        <v>102.1692532139635</v>
       </c>
     </row>
     <row r="8385" spans="1:2">
@@ -67423,7 +67423,7 @@
         <v>8385</v>
       </c>
       <c r="B8385">
-        <v>83.19876488141468</v>
+        <v>83.19876488141466</v>
       </c>
     </row>
     <row r="8386" spans="1:2">
@@ -67551,7 +67551,7 @@
         <v>8401</v>
       </c>
       <c r="B8401">
-        <v>33.76559357728958</v>
+        <v>33.76559357728957</v>
       </c>
     </row>
     <row r="8402" spans="1:2">
@@ -67567,7 +67567,7 @@
         <v>8403</v>
       </c>
       <c r="B8403">
-        <v>42.75877146965162</v>
+        <v>42.75877146965161</v>
       </c>
     </row>
     <row r="8404" spans="1:2">
@@ -67583,7 +67583,7 @@
         <v>8405</v>
       </c>
       <c r="B8405">
-        <v>40.67972552138804</v>
+        <v>40.67972552138803</v>
       </c>
     </row>
     <row r="8406" spans="1:2">
@@ -67599,7 +67599,7 @@
         <v>8407</v>
       </c>
       <c r="B8407">
-        <v>924.5717206376524</v>
+        <v>924.5717206376522</v>
       </c>
     </row>
     <row r="8408" spans="1:2">
@@ -67607,7 +67607,7 @@
         <v>8408</v>
       </c>
       <c r="B8408">
-        <v>814.039978406526</v>
+        <v>814.0399784065258</v>
       </c>
     </row>
     <row r="8409" spans="1:2">
@@ -67623,7 +67623,7 @@
         <v>8410</v>
       </c>
       <c r="B8410">
-        <v>635.6036765175659</v>
+        <v>635.6036765175658</v>
       </c>
     </row>
     <row r="8411" spans="1:2">
@@ -67647,7 +67647,7 @@
         <v>8413</v>
       </c>
       <c r="B8413">
-        <v>250.5848232576488</v>
+        <v>250.5848232576487</v>
       </c>
     </row>
     <row r="8414" spans="1:2">
@@ -67743,7 +67743,7 @@
         <v>8425</v>
       </c>
       <c r="B8425">
-        <v>0.4657572867717698</v>
+        <v>0.4657572867717697</v>
       </c>
     </row>
     <row r="8426" spans="1:2">
@@ -67815,7 +67815,7 @@
         <v>8434</v>
       </c>
       <c r="B8434">
-        <v>368.5280389854819</v>
+        <v>368.5280389854818</v>
       </c>
     </row>
     <row r="8435" spans="1:2">
@@ -67879,7 +67879,7 @@
         <v>8442</v>
       </c>
       <c r="B8442">
-        <v>336.0499064810316</v>
+        <v>336.0499064810315</v>
       </c>
     </row>
     <row r="8443" spans="1:2">
@@ -68143,7 +68143,7 @@
         <v>8475</v>
       </c>
       <c r="B8475">
-        <v>6.681052547051091</v>
+        <v>6.68105254705109</v>
       </c>
     </row>
     <row r="8476" spans="1:2">
@@ -68271,7 +68271,7 @@
         <v>8491</v>
       </c>
       <c r="B8491">
-        <v>562.9689502957381</v>
+        <v>562.968950295738</v>
       </c>
     </row>
     <row r="8492" spans="1:2">
@@ -68375,7 +68375,7 @@
         <v>8504</v>
       </c>
       <c r="B8504">
-        <v>849.7331002050912</v>
+        <v>849.7331002050911</v>
       </c>
     </row>
     <row r="8505" spans="1:2">
@@ -68503,7 +68503,7 @@
         <v>8520</v>
       </c>
       <c r="B8520">
-        <v>8.52297471793378</v>
+        <v>8.522974717933778</v>
       </c>
     </row>
     <row r="8521" spans="1:2">
@@ -68559,7 +68559,7 @@
         <v>8527</v>
       </c>
       <c r="B8527">
-        <v>119.2986692816419</v>
+        <v>119.2986692816418</v>
       </c>
     </row>
     <row r="8528" spans="1:2">
@@ -68591,7 +68591,7 @@
         <v>8531</v>
       </c>
       <c r="B8531">
-        <v>72.51925623259525</v>
+        <v>72.51925623259524</v>
       </c>
     </row>
     <row r="8532" spans="1:2">
@@ -68671,7 +68671,7 @@
         <v>8541</v>
       </c>
       <c r="B8541">
-        <v>78.1854916940737</v>
+        <v>78.18549169407369</v>
       </c>
     </row>
     <row r="8542" spans="1:2">
@@ -68679,7 +68679,7 @@
         <v>8542</v>
       </c>
       <c r="B8542">
-        <v>93.28216703759692</v>
+        <v>93.28216703759691</v>
       </c>
     </row>
     <row r="8543" spans="1:2">
@@ -68743,7 +68743,7 @@
         <v>8550</v>
       </c>
       <c r="B8550">
-        <v>237.9036394147724</v>
+        <v>237.9036394147723</v>
       </c>
     </row>
     <row r="8551" spans="1:2">
@@ -68815,7 +68815,7 @@
         <v>8559</v>
       </c>
       <c r="B8559">
-        <v>66.75366968901061</v>
+        <v>66.75366968901059</v>
       </c>
     </row>
     <row r="8560" spans="1:2">
@@ -68887,7 +68887,7 @@
         <v>8568</v>
       </c>
       <c r="B8568">
-        <v>181.9795307463758</v>
+        <v>181.9795307463757</v>
       </c>
     </row>
     <row r="8569" spans="1:2">
@@ -69015,7 +69015,7 @@
         <v>8584</v>
       </c>
       <c r="B8584">
-        <v>501.9750057295389</v>
+        <v>501.9750057295388</v>
       </c>
     </row>
     <row r="8585" spans="1:2">
@@ -69039,7 +69039,7 @@
         <v>8587</v>
       </c>
       <c r="B8587">
-        <v>790.9840797950379</v>
+        <v>790.9840797950378</v>
       </c>
     </row>
     <row r="8588" spans="1:2">
@@ -69159,7 +69159,7 @@
         <v>8602</v>
       </c>
       <c r="B8602">
-        <v>58.2431797973238</v>
+        <v>58.24317979732379</v>
       </c>
     </row>
     <row r="8603" spans="1:2">
@@ -69167,7 +69167,7 @@
         <v>8603</v>
       </c>
       <c r="B8603">
-        <v>22.97662289553014</v>
+        <v>22.97662289553013</v>
       </c>
     </row>
     <row r="8604" spans="1:2">
@@ -69263,7 +69263,7 @@
         <v>8615</v>
       </c>
       <c r="B8615">
-        <v>84.96920702596786</v>
+        <v>84.96920702596785</v>
       </c>
     </row>
     <row r="8616" spans="1:2">
@@ -69543,7 +69543,7 @@
         <v>8650</v>
       </c>
       <c r="B8650">
-        <v>469.3415455745981</v>
+        <v>469.341545574598</v>
       </c>
     </row>
     <row r="8651" spans="1:2">
@@ -69567,7 +69567,7 @@
         <v>8653</v>
       </c>
       <c r="B8653">
-        <v>240.5465540414204</v>
+        <v>240.5465540414203</v>
       </c>
     </row>
     <row r="8654" spans="1:2">
@@ -69575,7 +69575,7 @@
         <v>8654</v>
       </c>
       <c r="B8654">
-        <v>201.9748885011234</v>
+        <v>201.9748885011233</v>
       </c>
     </row>
     <row r="8655" spans="1:2">
@@ -69599,7 +69599,7 @@
         <v>8657</v>
       </c>
       <c r="B8657">
-        <v>297.5667483944104</v>
+        <v>297.5667483944103</v>
       </c>
     </row>
     <row r="8658" spans="1:2">
@@ -69687,7 +69687,7 @@
         <v>8668</v>
       </c>
       <c r="B8668">
-        <v>6.099628913450848</v>
+        <v>6.099628913450847</v>
       </c>
     </row>
     <row r="8669" spans="1:2">
@@ -69743,7 +69743,7 @@
         <v>8675</v>
       </c>
       <c r="B8675">
-        <v>427.672705297728</v>
+        <v>427.6727052977279</v>
       </c>
     </row>
     <row r="8676" spans="1:2">
@@ -69775,7 +69775,7 @@
         <v>8679</v>
       </c>
       <c r="B8679">
-        <v>220.9916820577808</v>
+        <v>220.9916820577807</v>
       </c>
     </row>
     <row r="8680" spans="1:2">
@@ -69919,7 +69919,7 @@
         <v>8697</v>
       </c>
       <c r="B8697">
-        <v>3.486988525096553</v>
+        <v>3.486988525096552</v>
       </c>
     </row>
     <row r="8698" spans="1:2">
@@ -69927,7 +69927,7 @@
         <v>8698</v>
       </c>
       <c r="B8698">
-        <v>3.10124842401049</v>
+        <v>3.101248424010489</v>
       </c>
     </row>
     <row r="8699" spans="1:2">
@@ -70255,7 +70255,7 @@
         <v>8739</v>
       </c>
       <c r="B8739">
-        <v>10.79140317138033</v>
+        <v>10.79140317138032</v>
       </c>
     </row>
     <row r="8740" spans="1:2">
@@ -70271,7 +70271,7 @@
         <v>8741</v>
       </c>
       <c r="B8741">
-        <v>23.91034722470519</v>
+        <v>23.91034722470518</v>
       </c>
     </row>
     <row r="8742" spans="1:2">
@@ -70311,7 +70311,7 @@
         <v>8746</v>
       </c>
       <c r="B8746">
-        <v>557.4914525831575</v>
+        <v>557.4914525831574</v>
       </c>
     </row>
     <row r="8747" spans="1:2">
